--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="67">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -165,6 +165,57 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typography_00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HARLOWSI.TTF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB-ALIGNMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020.08.11 Edge Gravity...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">边缘重力客制化机械键盘界面原型验证程序</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edge Gravity Custom Mechanical Keyboard GUI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By: SummerFalls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copyright (c) 2020 SummerFalls. All rights reserved.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typography_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STXIHEI.TTF</t>
   </si>
 </sst>
 </file>
@@ -1495,6 +1546,25 @@
       <c r="P6" s="10"/>
     </row>
     <row r="7" spans="2:16">
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
       <c r="L7" s="7" t="s">
         <v>7</v>
       </c>
@@ -1512,6 +1582,25 @@
       </c>
     </row>
     <row r="8" spans="2:16">
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8">
+        <v>40</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
       <c r="L8" s="7" t="s">
         <v>8</v>
       </c>
@@ -1624,13 +1713,16 @@
       <c r="F3" t="s">
         <v>36</v>
       </c>
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
         <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
         <v>43</v>
@@ -1642,7 +1734,94 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5"/>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3414" uniqueCount="223">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -216,6 +216,642 @@
   </si>
   <si>
     <t xml:space="preserve">STXIHEI.TTF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bender_46px</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bender.otf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bender_34px</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CourierNew_12px</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cour.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ApexLogo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ApexLogo_SocialNetwork.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/ MENU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0123456789.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CourierNew_14px</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020.09.12 Edge Gravity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NutX 104 ESSENTIAL μsical+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPU &lt;&gt; %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/ SYSTEM INFO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aABCDEFGHI
+JKLMNOPQR
+STUVWXYZ,.
+-/?@[</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aABCDEFGHI
+JKLMNOPQR
+STUVWXYZ,.
+-/?@[</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aABCDEFGHI
+JKLMNOPQR
+STUVWXYZ,.
+-/?@[</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aABCDEFGHI
+JKLMNOPQR
+STUVWXYZ,.
+-/?@[</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aABCDEFGHI
+JKLMNOPQR
+STUVWXYZ,.
+-/?@[</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aABCDEFGHI
+JKLMNOPQR
+STUVWXYZ,.
+-/?@[</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aABCDEFGHI
+JKLMNOPQR
+STUVWXYZ,.
+-/?@[</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aABCDEFGHI
+JKLMNOPQR
+STUVWXYZ,.
+-/?@[</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOYZ,.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ApexLogo_SocialNetwork</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ApexLogo_GUI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ApexLogo_GUI.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ApexLogo_Battery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ApexLogo_Battery.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ApexLogo.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abcdefghijklmnopqrstuvwxy
+ABCDEFGHIJKLMNOPQRSTUVWXY
+Z1234567890!"#$%&amp;@[\]^_`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hijklmnpstuvwxyzABOPQRST
+UVW1234567890!,."#$%&amp;'(-
+/:;=&gt;[\]^_`{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4D_OYZ,.[\ab
+cdefghijklm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">012345?@ABCD
+EFGJKLMNOPQT
+UXYZ[_a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abcdefghijklmnopqrstuvwxy
+ABCDEFGHIJKLMNOPQRSTUVWXY
+Z1234567890!"#$%&amp;@[\]^_`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hijklmnpstuvwxyzABOPQRST
+UVW1234567890!,."#$%&amp;'(-
+/:;=&gt;[\]^_`{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4D_OYZ,.[\ab
+cdefghijklm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">012345?@ABCD
+EFGJKLMNOPQT
+UXYZ[_a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abcdefghijklmnopqrstuvwxy
+ABCDEFGHIJKLMNOPQRSTUVWXY
+Z1234567890!"#$%&amp;@[\]^_`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hijklmnpstuvwxyzABOPQRST
+UVW1234567890!,."#$%&amp;'(-
+/:;=&gt;[\]^_`{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4D_OYZ,.[\ab
+cdefghijklm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">012345?@ABCD
+EFGJKLMNOPQT
+UXYZ[_a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abcdefghijklmnopqrstuvwxy
+ABCDEFGHIJKLMNOPQRSTUVWXY
+Z1234567890!"#$%&amp;@[\]^_`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hijklmnpstuvwxyzABOPQRST
+UVW1234567890!,."#$%&amp;'(-
+/:;=&gt;[\]^_`{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4D_OYZ,.[\ab
+cdefghijklm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">012345?@ABCD
+EFGJKLMNOPQT
+UXYZ[_a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abcdefghijklmnopqrstuvwxy
+ABCDEFGHIJKLMNOPQRSTUVWXY
+Z1234567890!"#$%&amp;@[\]^_`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hijklmnpstuvwxyzABOPQRST
+UVW1234567890!,."#$%&amp;'(-
+/:;=&gt;[\]^_`{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4D_OYZ,.[\ab
+cdefghijklm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">012345?@ABCD
+EFGJKLMNOPQT
+UXYZ[_a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abcdefghijklmnopqrstuvwxy
+ABCDEFGHIJKLMNOPQRSTUVWXY
+Z1234567890!"#$%&amp;@[\]^_`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hijklmnpstuvwxyzABOPQRST
+UVW1234567890!,."#$%&amp;'(-
+/:;=&gt;[\]^_`{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4D_OYZ,.[\ab
+cdefghijklm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">012345?@ABCD
+EFGJKLMNOPQT
+UXYZ[_a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abcdefghijklmnopqrstuvwxy
+ABCDEFGHIJKLMNOPQRSTUVWXY
+Z1234567890!"#$%&amp;@[\]^_`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hijklmnpstuvwxyzABOPQRST
+UVW1234567890!,."#$%&amp;'(-
+/:;=&gt;[\]^_`{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4D_OYZ,.[\ab
+cdefghijklm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">012345?@ABCD
+EFGJKLMNOPQT
+UXYZ[_a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abcdefghijklmnopqrstuvwxy
+ABCDEFGHIJKLMNOPQRSTUVWXY
+Z1234567890!"#$%&amp;@[\]^_`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hijklmnpstuvwxyzABOPQRST
+UVW1234567890!,."#$%&amp;'(-
+/:;=&gt;[\]^_`{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4D_OYZ,.[\ab
+cdefghijklm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">012345?@ABCD
+EFGJKLMNOPQT
+UXYZ[_a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abcdefghijklmnopqrstuvwxy
+ABCDEFGHIJKLMNOPQRSTUVWXY
+Z1234567890!"#$%&amp;@[\]^_`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hijklmnpstuvwxyzABOPQRST
+UVW1234567890!,."#$%&amp;'(-
+/:;=&gt;[\]^_`{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4D_OYZ,.[\ab
+cdefghijklm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">012345?@ABCD
+EFGJKLMNOPQT
+UXYZ[_a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abcdefghijklmnopqrstuvwxy
+ABCDEFGHIJKLMNOPQRSTUVWXY
+Z1234567890!"#$%&amp;@[\]^_`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hijklmnpstuvwxyzABOPQRST
+UVW1234567890!,."#$%&amp;'(-
+/:;=&gt;[\]^_`{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4D_OYZ,.[\ab
+cdefghijklm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">012345?@ABCD
+EFGJKLMNOPQT
+UXYZ[_a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abcdefghijklmnopqrstuvwxy
+ABCDEFGHIJKLMNOPQRSTUVWXY
+Z1234567890!"#$%&amp;@[\]^_`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hijklmnpstuvwxyzABOPQRST
+UVW1234567890!,."#$%&amp;'(-
+/:;=&gt;[\]^_`{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4D_OYZ,.[\ab
+cdefghijklm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">012345?@ABCD
+EFGJKLMNOPQT
+UXYZ[_a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abcdefghijklmnopqrstuvwxy
+ABCDEFGHIJKLMNOPQRSTUVWXY
+Z1234567890!"#$%&amp;@[\]^_`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hijklmnpstuvwxyzABOPQRST
+UVW1234567890!,."#$%&amp;'(-
+/:;=&gt;[\]^_`{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4D_OYZ,.[\ab
+cdefghijklm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">012345?@ABCD
+EFGJKLMNOPQT
+UXYZ[_a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abcdefghijklmnopqrstuvwxy
+ABCDEFGHIJKLMNOPQRSTUVWXY
+Z1234567890!"#$%&amp;@[\]^_`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hijklmnpstuvwxyzABOPQRST
+UVW1234567890!,."#$%&amp;'(-
+/:;=&gt;[\]^_`{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4D_OYZ,.[\ab
+cdefghijklm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">012345?@ABCD
+EFGJKLMNOPQT
+UXYZ[_a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abcdefghijklmnopqrstuvwxy
+ABCDEFGHIJKLMNOPQRSTUVWXY
+Z1234567890!"#$%&amp;@[\]^_`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hijklmnpstuvwxyzABOPQRST
+UVW1234567890!,."#$%&amp;'(-
+/:;=&gt;[\]^_`{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4D_OYZ,.[\ab
+cdefghijklm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">012345?@ABCD
+EFGJKLMNOPQT
+UXYZ[_a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abcdefghijklmnopqrstuvwxy
+ABCDEFGHIJKLMNOPQRSTUVWXY
+Z1234567890!"#$%&amp;@[\]^_`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hijklmnpstuvwxyzABOPQRST
+UVW1234567890!,."#$%&amp;'(-
+/:;=&gt;[\]^_`{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copyright © 2020 SummerFalls. All rights reserved.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4D_OYZ,.[\ab
+cdefghijklm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">012345?@ABCD
+EFGJKLMNOPQT
+UXYZ[_a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abcdefghijklmnopqrstuvwxy
+ABCDEFGHIJKLMNOPQRSTUVWXY
+Z1234567890!"#$%&amp;@[\]^_`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hijklmnpstuvwxyzABOPQRST
+UVW1234567890!,."#$%&amp;'(-
+/:;=&gt;[\]^_`{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4D_OYZ,.[\ab
+cdefghijklm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">012345?@ABCD
+EFGJKLMNOPQT
+UXYZ[_a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roboto_24px</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roboto-Regular.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bender_24px</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roboto_Thin_100px</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roboto-Thin.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roboto_14px</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abcdefghijklmnopqrstuvwxy
+ABCDEFGHIJKLMNOPQRSTUVWXY
+Z1234567890!"#$%&amp;@[\]^_`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hijklmnpstuvwxyzABOPQRST
+UVW1234567890!,."#$%&amp;'(-
+/:;=&gt;[\]^_`{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edge Gravity Custom Mechanical Keyboard GUI.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4D_OYZ,.[\ab
+cdefghijklm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">012345?@ABCD
+EFGJKLMNOPQT
+UXYZ[_a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_
+                           O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/ SYSTEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POWER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MHz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLOCK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abcdefghijklmnopqrstuvwxy
+ABCDEFGHIJKLMNOPQRSTUVWXY
+Z1234567890!"#$%&amp;@[\]^_`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hijklmnpstuvwxyzABOPQRST
+UVW1234567890!,."#$%&amp;'(-
+/:;=&gt;[\]^_`{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4D_OYZ,.[\ab
+cdefghijklm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">012345?@ABCD
+EFGJKLMNOPQT
+UXYZ[_a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_
+                           O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abcdefghijklmnopqrstuvwxy
+ABCDEFGHIJKLMNOPQRSTUVWXY
+Z1234567890!"#$%&amp;@[\]^_`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hijklmnpstuvwxyzABOPQRST
+UVW1234567890!,."#$%&amp;'(-
+/:;=&gt;[\]^_`{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4D_OYZ,.[\ab
+cdefghijklm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">012345?@ABCD
+EFGJKLMNOPQT
+UXYZ[_a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_
+                           O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abcdefghijklmnopqrstuvwxy
+ABCDEFGHIJKLMNOPQRSTUVWXY
+Z1234567890!"#$%&amp;@[\]^_`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hijklmnpstuvwxyzABOPQRST
+UVW1234567890!,."#$%&amp;'(-
+/:;=&gt;[\]^_`{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4D_OYZ,.[\ab
+cdefghijklm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">012345?@ABCD
+EFGJKLMNOPQT
+UXYZ[_a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_
+                           O</t>
   </si>
 </sst>
 </file>
@@ -1547,13 +2183,13 @@
     </row>
     <row r="7" spans="2:16">
       <c r="B7" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D7">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -1583,13 +2219,13 @@
     </row>
     <row r="8" spans="2:16">
       <c r="B8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D8">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E8">
         <v>4</v>
@@ -1598,7 +2234,9 @@
         <v>65</v>
       </c>
       <c r="G8"/>
-      <c r="H8"/>
+      <c r="H8" t="s">
+        <v>77</v>
+      </c>
       <c r="I8"/>
       <c r="J8"/>
       <c r="L8" s="7" t="s">
@@ -1616,6 +2254,25 @@
       <c r="P8" s="10"/>
     </row>
     <row r="9" spans="2:16">
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
       <c r="L9" s="11" t="s">
         <v>6</v>
       </c>
@@ -1633,6 +2290,25 @@
       </c>
     </row>
     <row r="10" spans="2:16">
+      <c r="B10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10">
+        <v>64</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
       <c r="L10" s="11" t="s">
         <v>28</v>
       </c>
@@ -1648,12 +2324,155 @@
       <c r="P10" s="14"/>
     </row>
     <row r="11" spans="2:16">
+      <c r="B11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11">
+        <v>32</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
       <c r="L11" s="15"/>
     </row>
     <row r="12" spans="2:16">
+      <c r="B12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <v>32</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
       <c r="M12" s="16" t="s">
         <v>27</v>
       </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13">
+        <v>64</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14">
+        <v>24</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+    </row>
+    <row r="17">
+      <c r="B17" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D17">
+        <v>14</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
     </row>
   </sheetData>
   <sheetProtection sheet="0" objects="0" scenarios="0" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
@@ -1711,10 +2530,7 @@
         <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
@@ -1722,7 +2538,7 @@
         <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
         <v>43</v>
@@ -1731,7 +2547,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5">
@@ -1739,27 +2555,24 @@
         <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" t="s">
-        <v>54</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>175</v>
       </c>
       <c r="D6" t="s">
         <v>54</v>
@@ -1768,32 +2581,32 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>175</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
         <v>54</v>
@@ -1802,24 +2615,330 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>183</v>
+      </c>
+      <c r="C15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" t="s">
+        <v>188</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C18" t="s">
+        <v>173</v>
+      </c>
+      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s">
+        <v>191</v>
+      </c>
+      <c r="C19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="s">
+        <v>193</v>
+      </c>
+      <c r="C20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="s">
+        <v>195</v>
+      </c>
+      <c r="C21" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s">
+        <v>197</v>
+      </c>
+      <c r="C22" t="s">
+        <v>172</v>
+      </c>
+      <c r="D22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s">
+        <v>199</v>
+      </c>
+      <c r="C23" t="s">
+        <v>172</v>
+      </c>
+      <c r="D23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="s">
+        <v>201</v>
+      </c>
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" t="s">
+        <v>188</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="s">
+        <v>203</v>
+      </c>
+      <c r="C25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" t="s">
+        <v>188</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="s">
+        <v>204</v>
+      </c>
+      <c r="C26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="s">
+        <v>206</v>
+      </c>
+      <c r="C27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
